--- a/data/395_P_label_case.xlsx
+++ b/data/395_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,778 +448,1570 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005383</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01039000138827146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.010766</v>
+        <v>0.005383</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07090817555180537</v>
+        <v>0.01039000138827146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.016149</v>
+        <v>0.010766</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1551886092794283</v>
+        <v>0.07090817555180537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.021532</v>
+        <v>0.016149</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2194337569956537</v>
+        <v>0.1551886092794283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.026915</v>
+        <v>0.021532</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2381569179248022</v>
+        <v>0.2194337569956537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.032782</v>
+        <v>0.026915</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232077797519008</v>
+        <v>0.2381569179248022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.038648</v>
+        <v>0.032782</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2089625726146107</v>
+        <v>0.232077797519008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.044515</v>
+        <v>0.038648</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1821374471894741</v>
+        <v>0.2089625726146107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.050382</v>
+        <v>0.044515</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1570633671496917</v>
+        <v>0.1821374471894741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.056248</v>
+        <v>0.050382</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1351141714939549</v>
+        <v>0.1570633671496917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.062625</v>
+        <v>0.056248</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1151924094307864</v>
+        <v>0.1351141714939549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.06900299999999999</v>
+        <v>0.062625</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09898995712650538</v>
+        <v>0.1151924094307864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.07537999999999999</v>
+        <v>0.06900299999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08624194975175113</v>
+        <v>0.09898995712650538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.08175700000000001</v>
+        <v>0.07537999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07618502156745835</v>
+        <v>0.08624194975175113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.088134</v>
+        <v>0.08175700000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06782424144092992</v>
+        <v>0.07618502156745835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.09504700000000001</v>
+        <v>0.088134</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06047524504006395</v>
+        <v>0.06782424144092992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.10196</v>
+        <v>0.09504700000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05449483680408607</v>
+        <v>0.06047524504006395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.10887</v>
+        <v>0.10196</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04969382716130066</v>
+        <v>0.05449483680408607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.11578</v>
+        <v>0.10887</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04578871878359028</v>
+        <v>0.04969382716130066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1227</v>
+        <v>0.11578</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04248230373476976</v>
+        <v>0.04578871878359028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.13017</v>
+        <v>0.1227</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03932673220874238</v>
+        <v>0.04248230373476976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.13764</v>
+        <v>0.13017</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03667430244907003</v>
+        <v>0.03932673220874238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.14511</v>
+        <v>0.13764</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03444053659203948</v>
+        <v>0.03667430244907003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.15258</v>
+        <v>0.14511</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03254163445349085</v>
+        <v>0.03444053659203948</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.16005</v>
+        <v>0.15258</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03087508613872102</v>
+        <v>0.03254163445349085</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.16809</v>
+        <v>0.16005</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02917532250083574</v>
+        <v>0.03087508613872102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.17614</v>
+        <v>0.16809</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02768193105790962</v>
+        <v>0.02917532250083574</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.18418</v>
+        <v>0.17614</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02636559377428162</v>
+        <v>0.02768193105790962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.19223</v>
+        <v>0.18418</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02522142912739482</v>
+        <v>0.02636559377428162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.20028</v>
+        <v>0.19223</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02422735568118357</v>
+        <v>0.02522142912739482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.20891</v>
+        <v>0.20028</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02321902946616803</v>
+        <v>0.02422735568118357</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.21755</v>
+        <v>0.20891</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02229139752729517</v>
+        <v>0.02321902946616803</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.22618</v>
+        <v>0.21755</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02142267097375047</v>
+        <v>0.02229139752729517</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.23482</v>
+        <v>0.22618</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02061125282591447</v>
+        <v>0.02142267097375047</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.24345</v>
+        <v>0.23482</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01985002784573097</v>
+        <v>0.02061125282591447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.25269</v>
+        <v>0.24345</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01905841476595632</v>
+        <v>0.01985002784573097</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.26192</v>
+        <v>0.25269</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01833416552662</v>
+        <v>0.01905841476595632</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.27115</v>
+        <v>0.26192</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01766175674741388</v>
+        <v>0.01833416552662</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.28038</v>
+        <v>0.27115</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01703297431285461</v>
+        <v>0.01766175674741388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.28961</v>
+        <v>0.28038</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0164305058220557</v>
+        <v>0.01703297431285461</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.29945</v>
+        <v>0.28961</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01573081698321859</v>
+        <v>0.0164305058220557</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.30928</v>
+        <v>0.29945</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01503124143095429</v>
+        <v>0.01573081698321859</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.31911</v>
+        <v>0.30928</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01435199675106484</v>
+        <v>0.01503124143095429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.32894</v>
+        <v>0.31911</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01372373333200477</v>
+        <v>0.01435199675106484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.33877</v>
+        <v>0.32894</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01316267802790205</v>
+        <v>0.01372373333200477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.34919</v>
+        <v>0.33877</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01259800172015396</v>
+        <v>0.01316267802790205</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.35961</v>
+        <v>0.34919</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01209225904637843</v>
+        <v>0.01259800172015396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.37004</v>
+        <v>0.35961</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01162567940867849</v>
+        <v>0.01209225904637843</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.38046</v>
+        <v>0.37004</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01119307155525773</v>
+        <v>0.01162567940867849</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.39088</v>
+        <v>0.38046</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01078484525532466</v>
+        <v>0.01119307155525773</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.40188</v>
+        <v>0.39088</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01034557013215292</v>
+        <v>0.01078484525532466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.41288</v>
+        <v>0.40188</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009931360496498674</v>
+        <v>0.01034557013215292</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.42388</v>
+        <v>0.41288</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009551130316090312</v>
+        <v>0.009931360496498674</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.43488</v>
+        <v>0.42388</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009217484435503598</v>
+        <v>0.009551130316090312</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.44588</v>
+        <v>0.43488</v>
       </c>
       <c r="B56" t="n">
-        <v>0.008930504600148286</v>
+        <v>0.009217484435503598</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.45743</v>
+        <v>0.44588</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008642215669082135</v>
+        <v>0.008930504600148286</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.46898</v>
+        <v>0.45743</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008348701113469824</v>
+        <v>0.008642215669082135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.48053</v>
+        <v>0.46898</v>
       </c>
       <c r="B59" t="n">
-        <v>0.008042294100334852</v>
+        <v>0.008348701113469824</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.49208</v>
+        <v>0.48053</v>
       </c>
       <c r="B60" t="n">
-        <v>0.007726468833800537</v>
+        <v>0.008042294100334852</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.50363</v>
+        <v>0.49208</v>
       </c>
       <c r="B61" t="n">
-        <v>0.007405495682209102</v>
+        <v>0.007726468833800537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5157</v>
+        <v>0.50363</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007072564193310123</v>
+        <v>0.007405495682209102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.52777</v>
+        <v>0.5157</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00674091320933669</v>
+        <v>0.007072564193310123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.53984</v>
+        <v>0.52777</v>
       </c>
       <c r="B64" t="n">
-        <v>0.006417462197855993</v>
+        <v>0.00674091320933669</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.55191</v>
+        <v>0.53984</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006107678664090732</v>
+        <v>0.006417462197855993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.56398</v>
+        <v>0.55191</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005814615892772368</v>
+        <v>0.006107678664090732</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.57652</v>
+        <v>0.56398</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0055114694491683</v>
+        <v>0.005814615892772368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.58906</v>
+        <v>0.57652</v>
       </c>
       <c r="B68" t="n">
-        <v>0.005231351025806199</v>
+        <v>0.0055114694491683</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6016100000000001</v>
+        <v>0.58906</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004966909049659527</v>
+        <v>0.005231351025806199</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.61415</v>
+        <v>0.6016100000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004713889965087027</v>
+        <v>0.004966909049659527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.62669</v>
+        <v>0.61415</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004464704382695131</v>
+        <v>0.004713889965087027</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.63966</v>
+        <v>0.62669</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004206465599486074</v>
+        <v>0.004464704382695131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.65262</v>
+        <v>0.63966</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003950116415473106</v>
+        <v>0.004206465599486074</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6655800000000001</v>
+        <v>0.65262</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003696352135299198</v>
+        <v>0.003950116415473106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.67855</v>
+        <v>0.6655800000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003449397849606407</v>
+        <v>0.003696352135299198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6915100000000001</v>
+        <v>0.67855</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003211820379634865</v>
+        <v>0.003449397849606407</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7048300000000001</v>
+        <v>0.6915100000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.002976724668475933</v>
+        <v>0.003211820379634865</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.71816</v>
+        <v>0.7048300000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00274985470137797</v>
+        <v>0.002976724668475933</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.73148</v>
+        <v>0.71816</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002531762765598264</v>
+        <v>0.00274985470137797</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7448</v>
+        <v>0.73148</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00232400661790889</v>
+        <v>0.002531762765598264</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.75812</v>
+        <v>0.7448</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002127162796568808</v>
+        <v>0.00232400661790889</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.77173</v>
+        <v>0.75812</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001930736590671328</v>
+        <v>0.002127162796568808</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7853399999999999</v>
+        <v>0.77173</v>
       </c>
       <c r="B83" t="n">
-        <v>0.001737202160718254</v>
+        <v>0.001930736590671328</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.79895</v>
+        <v>0.7853399999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001549327833389645</v>
+        <v>0.001737202160718254</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8125600000000001</v>
+        <v>0.79895</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001370183102412766</v>
+        <v>0.001549327833389645</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8261700000000001</v>
+        <v>0.8125600000000001</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001202128168559949</v>
+        <v>0.001370183102412766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.83999</v>
+        <v>0.8261700000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001036063147463585</v>
+        <v>0.001202128168559949</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8538100000000001</v>
+        <v>0.83999</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0008821002647240333</v>
+        <v>0.001036063147463585</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8676299999999999</v>
+        <v>0.8538100000000001</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0007391356030791617</v>
+        <v>0.0008821002647240333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.88145</v>
+        <v>0.8676299999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0006068020083702756</v>
+        <v>0.0007391356030791617</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8952700000000001</v>
+        <v>0.88145</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0004847330793965858</v>
+        <v>0.0006068020083702756</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.90922</v>
+        <v>0.8952700000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0003716148789618446</v>
+        <v>0.0004847330793965858</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.92317</v>
+        <v>0.90922</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002723159506302419</v>
+        <v>0.0003716148789618446</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9371200000000001</v>
+        <v>0.92317</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001867843807763861</v>
+        <v>0.0002723159506302419</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9510700000000001</v>
+        <v>0.9371200000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001157746405203061</v>
+        <v>0.0001867843807763861</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9650200000000001</v>
+        <v>0.9510700000000001</v>
       </c>
       <c r="B96" t="n">
-        <v>6.027862821974349e-05</v>
+        <v>0.0001157746405203061</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.97901</v>
+        <v>0.9650200000000001</v>
       </c>
       <c r="B97" t="n">
-        <v>2.134193965439583e-05</v>
+        <v>6.027862821974349e-05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
+        <v>0.97901</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.134193965439583e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
         <v>0.993</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B99" t="n">
         <v>1.142486508902294e-06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.229901104069891e-08</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.748538339403151e-05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5.195936531338049e-05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.0489</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0001024923777554788</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.0629</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0001687522611647427</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.0768</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0002495863796353621</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.0908</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0003428982373429413</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.1047</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0004468074895593082</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.1185</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0005587278962618134</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.1324</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0006826137623839201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.1462</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0008189556025006232</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0009673972184510856</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.1738</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.001129001871741362</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.1874</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.001296420633245433</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00147735378365649</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.2147</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.001671391370499135</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.2283</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.001876612574410508</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.2419</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.002091249372043731</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.2552</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.002303001723049568</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.2685</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.002522126921554331</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.2818</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.002749635262938424</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.2952</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.002986661043432529</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.3085</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.003236984666212548</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.3215</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.003486506970964125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.3344</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.00374776223484176</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.3474</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.004018880683839201</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.3603</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.004295507741218146</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.3733</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.004574076223653988</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.3859</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.00483544733809088</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.3984</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.005101435866248721</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.4109</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.005376126141624143</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.4235</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.005663414483176761</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.005968704266479942</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.4481</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.00626880089370704</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.4602</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.006569867131467081</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.4722</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.006875511954301963</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.4843</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.007188930297784809</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.4964</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.007521623905128804</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.5079</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.007847911386577332</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.5195</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.008202249364190511</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.008578818305723828</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.5426</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.008963419962626418</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.5541</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.009352022146111772</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.5651</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.00970709957202715</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.5761</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.01007913837687289</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.5871</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.01047405205054723</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.5981</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.01088789247961299</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.6091</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.01132295453425728</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.6195</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.01171377390926675</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.01213638913076112</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.6404</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.01259097313997972</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.6508</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.01307223857146254</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.6612</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.01358635598143981</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.6711</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.01404243170813647</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.6809</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.01453803440832246</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.6907</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.01508375527645459</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.7006</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.01568026265109279</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.7104</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.01633662650440849</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.7196</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.01689075500265393</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.7289</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.017489488384617</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.7381</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0181380291955425</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.7473</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.01883683353776242</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.7565</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.01959614420611219</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.7652</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.02028681479780213</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.7738</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.02107470999786238</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.7825</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.0219579702321979</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.7911</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.02292746980858865</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.7997</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.02398955518858258</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.8078</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.02499841597532199</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.8158</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.02611424186069893</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.8239</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.02737331224131961</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.8319</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.02879910691627835</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.03043515842140056</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.8474</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.03206291374419863</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.8549</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.03394926422717171</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.8624</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.03620191891248425</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.8698</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.03891019575897618</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.8773</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.042164173692433</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.8842</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.04565061662769924</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.8911</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.049756587308142</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.05480618546401362</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.06109992010023185</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.9119</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.06884813946005568</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.9182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.07761210123884284</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.9246</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.08811406838424923</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1012365527752775</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.9374</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.1176257938804702</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.9438</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.1374301972087409</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.9496</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1592299026586261</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.9555</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1839671658484847</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.9614</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.2105613921836898</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.9672</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.2338111135742348</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.9731</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.2403995724805957</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.9785</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.2223806747411181</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.9839</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1579549418755396</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.9892</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.07245519685273326</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.9946</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.01062371347812379</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
